--- a/jiawei_trupath_csv/MOR_lofentanil_arr1_normalize_deer+arr.xlsx
+++ b/jiawei_trupath_csv/MOR_lofentanil_arr1_normalize_deer+arr.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwangab/Dropbox/My Mac (Haoqing’s MacBook Pro)/Documents/GitHub/mglur5_MWC/jiawei_trupath_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8578DA-47A8-1644-B393-8AAF32466D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B65C24D-9ABC-A84C-9FF7-969E5EFA8310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37040" yWindow="5560" windowWidth="26440" windowHeight="15440" xr2:uid="{2114E185-9A56-5442-A06F-DED2FF732504}"/>
+    <workbookView xWindow="4480" yWindow="1260" windowWidth="38400" windowHeight="20160" xr2:uid="{2114E185-9A56-5442-A06F-DED2FF732504}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -409,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4252B81F-D816-DD46-BC75-F7DE7B873B32}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B66" sqref="B66:B73"/>
     </sheetView>
   </sheetViews>
